--- a/biology/Botanique/Brachyelytrum_erectum/Brachyelytrum_erectum.xlsx
+++ b/biology/Botanique/Brachyelytrum_erectum/Brachyelytrum_erectum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachyelytrum erectum, connu sous les noms commun de brachyélytre (du Sud, dressé), est une espèce de plantes à fleurs de la famille des Poaceae. C'est une graminée vivace indigène d'Amérique du Nord. Son épithète spécifique « erectum » fait référence aux chaumes dressés de l'herbe.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyelytrum erectum pousse en chaumes dressés qui peuvent mesurer de 30 à 100 cm (12 à 39"), présentant des nœuds pileux. Ses gaines foliaires hispides ont tendance à se recourber vers l'arrière et ses limbes scabreux mesurent de 3.5 à 15 cm (1,4 à 5,9") de long et 0.6 à 2 cm (0,24 à 0,79") de large. Les côtés abaxiaux des limbes des feuilles sont pileux sur leurs nervures, les côtés adaxiaux sont glabres. La panicule simple, portant quelques fleurs, est étroite et mesure de 5 à 20 cm (2,0 à 7,9") de long, avec des épillets mesurant de 2 à 4 cm (0,79-1,57") porté sur des pédicelles capillaires. La première glume a tendance à être obsolète ou vestigiale et la deuxième est aristée. Ses lemmes sont d'environ 1 mm (0,039 in) et hispide, avec des poils jusqu'à 6 mm (0,24") de longueur. Ses arêtes mesurent de 1.3 à 2 cm (0,51 à 0,79") de long et ses épillets mesurent de 7 à 12 mm (0,28 à 0,47"); ces derniers ont une apparence mince de poil nu derrière la paille sur environ la moitié aux deux tiers de sa longueur. Ses étamines mesurent de 3.5 à 6 mm (0,14 à 0,24") et ses caryopses mesurent de 5.5 à 7.5 mm (0,22 à 0,30") de longueur. L'herbe fleurit de juin à août[1],[2]. Son nombre diploïde est 22.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyelytrum erectum pousse en chaumes dressés qui peuvent mesurer de 30 à 100 cm (12 à 39"), présentant des nœuds pileux. Ses gaines foliaires hispides ont tendance à se recourber vers l'arrière et ses limbes scabreux mesurent de 3.5 à 15 cm (1,4 à 5,9") de long et 0.6 à 2 cm (0,24 à 0,79") de large. Les côtés abaxiaux des limbes des feuilles sont pileux sur leurs nervures, les côtés adaxiaux sont glabres. La panicule simple, portant quelques fleurs, est étroite et mesure de 5 à 20 cm (2,0 à 7,9") de long, avec des épillets mesurant de 2 à 4 cm (0,79-1,57") porté sur des pédicelles capillaires. La première glume a tendance à être obsolète ou vestigiale et la deuxième est aristée. Ses lemmes sont d'environ 1 mm (0,039 in) et hispide, avec des poils jusqu'à 6 mm (0,24") de longueur. Ses arêtes mesurent de 1.3 à 2 cm (0,51 à 0,79") de long et ses épillets mesurent de 7 à 12 mm (0,28 à 0,47"); ces derniers ont une apparence mince de poil nu derrière la paille sur environ la moitié aux deux tiers de sa longueur. Ses étamines mesurent de 3.5 à 6 mm (0,14 à 0,24") et ses caryopses mesurent de 5.5 à 7.5 mm (0,22 à 0,30") de longueur. L'herbe fleurit de juin à août,. Son nombre diploïde est 22.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyelytrum erectum se retrouve dans les bois, les fourrés et parfois sur des lits de calcaire ou d'autres substrats rocheux alcalins[3]. Il pousse au Canada depuis le lac des Bois jusqu'à Terre-Neuve et aux États-Unis, depuis l'ouest du Massachusetts jusqu'à l'Iowa et au sud jusqu'en Alabama, au Mississippi et en Louisiane[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyelytrum erectum se retrouve dans les bois, les fourrés et parfois sur des lits de calcaire ou d'autres substrats rocheux alcalins. Il pousse au Canada depuis le lac des Bois jusqu'à Terre-Neuve et aux États-Unis, depuis l'ouest du Massachusetts jusqu'à l'Iowa et au sud jusqu'en Alabama, au Mississippi et en Louisiane.
 </t>
         </is>
       </c>
